--- a/biology/Botanique/Forêt_feuillue/Forêt_feuillue.xlsx
+++ b/biology/Botanique/Forêt_feuillue/Forêt_feuillue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_feuillue</t>
+          <t>Forêt_feuillue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts tempérées décidues et mixtes, forêts tempérées caducifoliées ou forêts némorales forment un vaste biome transcontinental constitué de grandes forêts d'arbres à feuilles caduques, c'est-à-dire qui tombent durant la saison hivernale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_feuillue</t>
+          <t>Forêt_feuillue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce type de végétation couvre l'Europe de l'Ouest et centrale, l'est de la Russie, une partie du Caucase, de la Chine, et de l'Himalaya, le nord-est du continent américain aux États-Unis et au Canada, ainsi que la Nouvelle-Zélande et des zones côtières d'Amérique du Sud et d'Australie.
 Cette forêt a été grandement détruite ou endommagée depuis des millénaires par les défrichements humains notamment dus à l'agriculture, la sédentarisation et l'explosion démographique, et l'exploitation du bois (dont la construction navale depuis l'époque romaine qui a littéralement dévasté le pourtour méditerranéen).
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_feuillue</t>
+          <t>Forêt_feuillue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts mixtes ou tempérées sont situées dans des régions suffisamment arrosées à climats tempérés, généralement de type océanique ou semi-continental si l'hiver n'est pas trop doux.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_feuillue</t>
+          <t>Forêt_feuillue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Biomasse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La biomasse de ce genre de forêt est relativement grande. Près de la moitié est dans le sol, l'autre moitié est sur pied.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_feuillue</t>
+          <t>Forêt_feuillue</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +623,12 @@
           <t>Biodiversité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces forêts abritent une diversité très élevée de champignons et invertébrés notamment, ainsi probablement que de bactéries et autres microorganismes. Des cortèges d'espèces typiquement forestières ou strictement dépendantes du bois mort sont en régression du fait de la rareté en bois mort et de la fragmentation forestière notamment.
-En 2012, en France, le Muséum national d'histoire naturelle, Natureparif, et l’association Noé Conservation ont lancé un suivi participatif pour avancer dans la compréhension du fonctionnement des écosystèmes boisés, particulièrement touchés par les activités humaines, et pour mieux connaître l’état de santé de nos forêts[3].
+En 2012, en France, le Muséum national d'histoire naturelle, Natureparif, et l’association Noé Conservation ont lancé un suivi participatif pour avancer dans la compréhension du fonctionnement des écosystèmes boisés, particulièrement touchés par les activités humaines, et pour mieux connaître l’état de santé de nos forêts.
 </t>
         </is>
       </c>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>For%C3%AAt_feuillue</t>
+          <t>Forêt_feuillue</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les forêts tempérées sont structurées de quatre strates :
 Une canopée d'arbres matures de grandes tailles;
@@ -653,7 +675,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>For%C3%AAt_feuillue</t>
+          <t>Forêt_feuillue</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,7 +693,9 @@
           <t>Listes des écorégions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La variété floristique et la luxuriance végétale permettent de distinguer plusieurs nuances :
 La forêt de feuillus d'Europe et d'Asie occidentale
